--- a/4_구현/Command_Table.xlsx
+++ b/4_구현/Command_Table.xlsx
@@ -567,14 +567,14 @@
   <dimension ref="A3:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.75" style="1" customWidth="1"/>

--- a/4_구현/Command_Table.xlsx
+++ b/4_구현/Command_Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,34 @@
   </si>
   <si>
     <t>이영재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/customer?todo=add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조 JSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/customer?todo=find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/customer?todo=update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/action/customer?todo=remove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +290,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,25 +598,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F22"/>
+  <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,185 +626,239 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="6"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="6"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="6"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="6"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="6"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="6"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
